--- a/examples/WebIndexSimple/dataSimple0.4.xlsx
+++ b/examples/WebIndexSimple/dataSimple0.4.xlsx
@@ -9,65 +9,809 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16536" windowHeight="7908" tabRatio="554" firstSheet="20" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16536" windowHeight="7908" tabRatio="554" firstSheet="17" activeTab="19"/>
   </bookViews>
   <sheets>
-    <sheet name="A-RAW" sheetId="2" r:id="rId1"/>
-    <sheet name="B-RAW" sheetId="6" r:id="rId2"/>
-    <sheet name="C-RAW" sheetId="7" r:id="rId3"/>
-    <sheet name="D-Raw" sheetId="8" r:id="rId4"/>
-    <sheet name="A-Imputed" sheetId="28" r:id="rId5"/>
-    <sheet name="B-Imputed" sheetId="29" r:id="rId6"/>
-    <sheet name="C-Imputed" sheetId="30" r:id="rId7"/>
-    <sheet name="D-Imputed" sheetId="31" r:id="rId8"/>
-    <sheet name="A-Ordered" sheetId="4" r:id="rId9"/>
-    <sheet name="B-Ordered" sheetId="12" r:id="rId10"/>
-    <sheet name="C-Ordered" sheetId="11" r:id="rId11"/>
-    <sheet name="D-Ordered" sheetId="13" r:id="rId12"/>
-    <sheet name="A-Normalised" sheetId="5" r:id="rId13"/>
-    <sheet name="B-Normalised" sheetId="15" r:id="rId14"/>
-    <sheet name="C-Normalised" sheetId="14" r:id="rId15"/>
-    <sheet name="D-Normalised" sheetId="16" r:id="rId16"/>
-    <sheet name="Indicators-Normalised" sheetId="21" r:id="rId17"/>
-    <sheet name="Indicators-Adjusted" sheetId="24" r:id="rId18"/>
-    <sheet name="Indicators-Weighted" sheetId="25" r:id="rId19"/>
-    <sheet name="Clusters-Grouped" sheetId="22" r:id="rId20"/>
-    <sheet name="Subindex-Grouped" sheetId="26" r:id="rId21"/>
-    <sheet name="Composite" sheetId="27" r:id="rId22"/>
-    <sheet name="Rankings" sheetId="20" r:id="rId23"/>
-    <sheet name="Survey-Raw" sheetId="34" r:id="rId24"/>
-    <sheet name="Survey-Normalised" sheetId="35" r:id="rId25"/>
+    <sheet name="Metadata" sheetId="1" r:id="rId1"/>
+    <sheet name="A-RAW" sheetId="2" r:id="rId2"/>
+    <sheet name="B-RAW" sheetId="6" r:id="rId3"/>
+    <sheet name="C-RAW" sheetId="7" r:id="rId4"/>
+    <sheet name="Q1" sheetId="32" r:id="rId5"/>
+    <sheet name="Q2" sheetId="33" r:id="rId6"/>
+    <sheet name="D-Raw" sheetId="8" r:id="rId7"/>
+    <sheet name="A-Imputed" sheetId="28" r:id="rId8"/>
+    <sheet name="B-Imputed" sheetId="29" r:id="rId9"/>
+    <sheet name="C-Imputed" sheetId="30" r:id="rId10"/>
+    <sheet name="D-Imputed" sheetId="31" r:id="rId11"/>
+    <sheet name="A-Ordered" sheetId="4" r:id="rId12"/>
+    <sheet name="B-Ordered" sheetId="12" r:id="rId13"/>
+    <sheet name="C-Ordered" sheetId="11" r:id="rId14"/>
+    <sheet name="D-Ordered" sheetId="13" r:id="rId15"/>
+    <sheet name="A-Normalised" sheetId="5" r:id="rId16"/>
+    <sheet name="B-Normalised" sheetId="15" r:id="rId17"/>
+    <sheet name="C-Normalised" sheetId="14" r:id="rId18"/>
+    <sheet name="D-Normalised" sheetId="16" r:id="rId19"/>
+    <sheet name="Indicators-SelectYear" sheetId="21" r:id="rId20"/>
+    <sheet name="Indicators-Adjusted" sheetId="24" r:id="rId21"/>
+    <sheet name="Indicators-Weighted" sheetId="25" r:id="rId22"/>
+    <sheet name="Clusters-Grouped" sheetId="22" r:id="rId23"/>
+    <sheet name="Subindex-Grouped" sheetId="26" r:id="rId24"/>
+    <sheet name="Composite" sheetId="27" r:id="rId25"/>
+    <sheet name="Rankings" sheetId="20" r:id="rId26"/>
+    <sheet name="Survey-Raw" sheetId="34" r:id="rId27"/>
+    <sheet name="Survey-Normalised" sheetId="35" r:id="rId28"/>
   </sheets>
   <definedNames>
-    <definedName name="countries">#REF!</definedName>
-    <definedName name="datatype">#REF!</definedName>
-    <definedName name="indicators">#REF!</definedName>
+    <definedName name="countries">Metadata!$A$14:$A$249</definedName>
+    <definedName name="datatype">Metadata!$A$5:$A$7</definedName>
+    <definedName name="indicators">Metadata!$A$252:$A$336</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="283">
+  <si>
+    <t>Raw</t>
+  </si>
+  <si>
+    <t>The original data as found on the source</t>
+  </si>
+  <si>
+    <t>Data including the gaps, see also inputed method</t>
+  </si>
+  <si>
+    <t>Normalised</t>
+  </si>
+  <si>
+    <t>The normalised values</t>
+  </si>
+  <si>
+    <t>Inputed method</t>
+  </si>
+  <si>
+    <t>Normalised country names</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Aland Islands</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
   <si>
     <t>Armenia</t>
   </si>
   <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
     <t>Chile</t>
   </si>
   <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Hong Kong Special Administrative Region of China</t>
+  </si>
+  <si>
+    <t>Macao Special Administrative Region of China</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Democratic People's Republic of Korea</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Faeroe Islands</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Malvinas)</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
     <t>Finland</t>
   </si>
   <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Holy See</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran, Islamic Republic of</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Lao People's Democratic Republic</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libyan Arab Jamahiriya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Micronesia, Federated States of</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Occupied Palestinian Territory</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Pitcairn</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Republic of Korea</t>
+  </si>
+  <si>
+    <t>R_union</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint-Barthélemy</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint-Martin (French part)</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
     <t>Spain</t>
   </si>
   <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen Islands</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>The former Yugoslav Republic of Macedonia</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom of Great Britain and Northern Ireland</t>
+  </si>
+  <si>
+    <t>United Republic of Tanzania</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>United States Virgin Islands</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela (Bolivarian Republic of)</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna Islands</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Normalised indicators code</t>
+  </si>
+  <si>
     <t>Q1</t>
   </si>
   <si>
     <t>Indicator</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Data that are on this sheet are NOT to be edited</t>
+  </si>
+  <si>
+    <t>Data state</t>
+  </si>
+  <si>
+    <t>Any changes made on this sheet needs to be validated with Jules, Hania, TAS and WESO</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -89,6 +833,15 @@
     <t>SD</t>
   </si>
   <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
     <t>AB</t>
   </si>
   <si>
@@ -101,6 +854,12 @@
     <t>Component</t>
   </si>
   <si>
+    <t>Secondary</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
     <t>ABQ2</t>
   </si>
   <si>
@@ -117,6 +876,27 @@
   </si>
   <si>
     <t>Composite</t>
+  </si>
+  <si>
+    <t>Indicators Type</t>
+  </si>
+  <si>
+    <t>HighLow</t>
+  </si>
+  <si>
+    <t>Average Growth</t>
+  </si>
+  <si>
+    <t>Missing values as Average of previous and next</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>AverageGrowth</t>
+  </si>
+  <si>
+    <t>Imputed</t>
   </si>
   <si>
     <t>Mean</t>
@@ -129,7 +909,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -146,6 +931,18 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -189,13 +986,31 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7AB800"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -216,10 +1031,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -239,32 +1063,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,86 +1430,1425 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:D5"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A2:C272"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="27.08984375" customWidth="1"/>
+    <col min="2" max="2" width="32.7265625" customWidth="1"/>
+    <col min="3" max="3" width="38.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="2">
-        <v>2009</v>
-      </c>
-      <c r="C1" s="2">
-        <v>2010</v>
-      </c>
-      <c r="D1" s="2">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>253</v>
+      </c>
+      <c r="B252" t="s">
+        <v>260</v>
+      </c>
+      <c r="C252">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>254</v>
+      </c>
+      <c r="B253" t="s">
+        <v>261</v>
+      </c>
+      <c r="C253">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>255</v>
+      </c>
+      <c r="B254" t="s">
+        <v>260</v>
+      </c>
+      <c r="C254">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>256</v>
+      </c>
+      <c r="B255" t="s">
+        <v>260</v>
+      </c>
+      <c r="C255">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>5</v>
-      </c>
-      <c r="D4" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5">
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>244</v>
+      </c>
+      <c r="B256" t="s">
+        <v>260</v>
+      </c>
+      <c r="C256">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>257</v>
+      </c>
+      <c r="B257" t="s">
+        <v>260</v>
+      </c>
+      <c r="C257">
         <v>1</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5">
+    </row>
+    <row r="260" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>263</v>
+      </c>
+      <c r="B261">
         <v>1</v>
       </c>
     </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>257</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>272</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>264</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>269</v>
+      </c>
+      <c r="B267">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>270</v>
+      </c>
+      <c r="B268">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>267</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
-      <formula1>countries</formula1>
-    </dataValidation>
-  </dataValidations>
+  <sortState ref="A249:A333">
+    <sortCondition ref="A249"/>
+  </sortState>
+  <dataConsolidate/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
@@ -678,104 +2856,91 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja12"/>
-  <dimension ref="A1:E7"/>
+  <sheetPr codeName="Hoja9"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="2">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="6">
         <v>2009</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="6">
         <v>2010</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="6">
         <v>2011</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="5">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="15">
+        <f>AVERAGE(B3,D3)</f>
+        <v>5</v>
+      </c>
+      <c r="D3" s="5">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="13">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="D4" s="16">
+        <f>C4*AVERAGE(C4/B4)</f>
+        <v>10.666666666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="C5" s="16">
+        <v>3</v>
+      </c>
+      <c r="D5" s="13">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
-        <f>AVERAGE(B2:B4)</f>
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <f>AVERAGE(C2:C4)</f>
-        <v>6</v>
-      </c>
-      <c r="D6" s="1">
-        <f>AVERAGE(D2:D4)</f>
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
-        <f>STDEV(B2:B4)</f>
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <f>STDEV(C2:C4)</f>
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <f>STDEV(D2:D4)</f>
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -790,106 +2955,87 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja13"/>
-  <dimension ref="A1:E7"/>
+  <sheetPr codeName="Hoja10"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E7"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="2">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="6">
         <v>2009</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="6">
         <v>2010</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="6">
         <v>2011</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="5">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="D3" s="5">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="13">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16">
+        <v>2</v>
+      </c>
+      <c r="D5" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7">
-        <f>AVERAGE(B3,D3)</f>
-        <v>5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8</v>
-      </c>
-      <c r="D4" s="8">
-        <f>C4*AVERAGE(C4/B4)</f>
-        <v>10.666666666666666</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
-        <f>AVERAGE(B2:B4)</f>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="C6" s="1">
-        <f>AVERAGE(C2:C4)</f>
-        <v>6</v>
-      </c>
-      <c r="D6" s="1">
-        <f>AVERAGE(D2:D4)</f>
-        <v>6.5555555555555545</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
-        <f>STDEV(B2:B4)</f>
-        <v>1.1547005383792526</v>
-      </c>
-      <c r="C7" s="1">
-        <f>STDEV(C2:C4)</f>
-        <v>1.7320508075688772</v>
-      </c>
-      <c r="D7" s="1">
-        <f>STDEV(D2:D4)</f>
-        <v>3.8634085890474927</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="19"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -904,103 +3050,111 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja14"/>
+  <sheetPr codeName="Hoja11"/>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B6" sqref="B6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="11.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="2">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="6">
         <v>2009</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="6">
         <v>2010</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="6">
         <v>2011</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="D2" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15">
+        <f>AVERAGE(B3,D3)</f>
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="13">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="D4" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="5">
+        <f>AVERAGE(B2:B4)</f>
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C6" s="5">
+        <f>AVERAGE(C2:C4)</f>
+        <v>3</v>
+      </c>
+      <c r="D6" s="5">
+        <f>AVERAGE(D2:D4)</f>
+        <v>5</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="5">
+        <f>STDEV(B2:B4)</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <f>STDEV(C2:C4)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <f>STDEV(D2:D4)</f>
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
-        <f>AVERAGE(B2:B4)</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="C6" s="1">
-        <f>AVERAGE(C2:C4)</f>
-        <v>5</v>
-      </c>
-      <c r="D6" s="1">
-        <f>AVERAGE(D2:D4)</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
-        <f>STDEV(B2:B4)</f>
-        <v>1.154700538379251</v>
-      </c>
-      <c r="C7" s="1">
-        <f>STDEV(C2:C4)</f>
-        <v>1.7320508075688772</v>
-      </c>
-      <c r="D7" s="1">
-        <f>STDEV(D2:D4)</f>
-        <v>2.309401076758502</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
+      <c r="E7" s="5" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -1016,78 +3170,103 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja17"/>
-  <dimension ref="A1:D4"/>
+  <sheetPr codeName="Hoja12"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D4"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="2">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="6">
         <v>2009</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="6">
         <v>2010</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="6">
         <v>2011</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="5">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="13">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4</v>
+      </c>
+      <c r="D4" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="5">
+        <f>AVERAGE(B2:B4)</f>
+        <v>5</v>
+      </c>
+      <c r="C6" s="5">
+        <f>AVERAGE(C2:C4)</f>
+        <v>6</v>
+      </c>
+      <c r="D6" s="5">
+        <f>AVERAGE(D2:D4)</f>
+        <v>7</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="5">
+        <f>STDEV(B2:B4)</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <f>STDEV(C2:C4)</f>
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <f>STDEV(D2:D4)</f>
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <f>('A-Ordered'!B$2-'A-Ordered'!B$6)/'A-Ordered'!B$7</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <f>('A-Ordered'!C$2-'A-Ordered'!C$6)/'A-Ordered'!C$7</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <f>('A-Ordered'!D$2-'A-Ordered'!D$6)/'A-Ordered'!D$7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <f>('A-Ordered'!B$3-'A-Ordered'!B$6)/'A-Ordered'!B$7</f>
-        <v>-1</v>
-      </c>
-      <c r="C3" s="1">
-        <f>('A-Ordered'!C$3-'A-Ordered'!C$6)/'A-Ordered'!C$7</f>
-        <v>-1</v>
-      </c>
-      <c r="D3" s="1">
-        <f>('A-Ordered'!D$3-'A-Ordered'!D$6)/'A-Ordered'!D$7</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <f>('A-Ordered'!B$4-'A-Ordered'!B$6)/'A-Ordered'!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <f>('A-Ordered'!C$4-'A-Ordered'!C$6)/'A-Ordered'!C$7</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <f>('A-Ordered'!D$4-'A-Ordered'!D$6)/'A-Ordered'!D$7</f>
-        <v>1</v>
+      <c r="E7" s="5" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -1097,83 +3276,111 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja18"/>
-  <dimension ref="A1:D4"/>
+  <sheetPr codeName="Hoja13"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="2">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="6">
         <v>2009</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="6">
         <v>2010</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="6">
         <v>2011</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="5">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <f>('B-Ordered'!B$6-'B-Ordered'!B$2)/'B-Ordered'!B$7</f>
-        <v>-1</v>
-      </c>
-      <c r="C2" s="1">
-        <f>('B-Ordered'!C$6-'B-Ordered'!C$2)/'B-Ordered'!C$7</f>
-        <v>-1</v>
-      </c>
-      <c r="D2" s="1">
-        <f>('B-Ordered'!D$6-'B-Ordered'!D$2)/'B-Ordered'!D$7</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <f>('B-Ordered'!B$6-'B-Ordered'!B$3)/'B-Ordered'!B$7</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <f>('B-Ordered'!C$6-'B-Ordered'!C$3)/'B-Ordered'!C$7</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <f>('B-Ordered'!D$6-'B-Ordered'!D$3)/'B-Ordered'!D$7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <f>('B-Ordered'!B$6-'B-Ordered'!B$4)/'B-Ordered'!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <f>('B-Ordered'!C$6-'B-Ordered'!C$4)/'B-Ordered'!C$7</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <f>('B-Ordered'!D$6-'B-Ordered'!D$4)/'B-Ordered'!D$7</f>
-        <v>1</v>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="15">
+        <f>AVERAGE(B3,D3)</f>
+        <v>5</v>
+      </c>
+      <c r="D3" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="13">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
+        <v>8</v>
+      </c>
+      <c r="D4" s="16">
+        <f>C4*AVERAGE(C4/B4)</f>
+        <v>10.666666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="5">
+        <f>AVERAGE(B2:B4)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="C6" s="5">
+        <f>AVERAGE(C2:C4)</f>
+        <v>6</v>
+      </c>
+      <c r="D6" s="5">
+        <f>AVERAGE(D2:D4)</f>
+        <v>6.5555555555555545</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="5">
+        <f>STDEV(B2:B4)</f>
+        <v>1.1547005383792526</v>
+      </c>
+      <c r="C7" s="5">
+        <f>STDEV(C2:C4)</f>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="D7" s="5">
+        <f>STDEV(D2:D4)</f>
+        <v>3.8634085890474927</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -1183,83 +3390,109 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja19"/>
-  <dimension ref="A1:D4"/>
+  <sheetPr codeName="Hoja14"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="2">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="6">
         <v>2009</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="6">
         <v>2010</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="6">
         <v>2011</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="5">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <f>('C-Ordered'!B$2-'C-Ordered'!B$6)/'C-Ordered'!B$7</f>
-        <v>-0.57735026918962551</v>
-      </c>
-      <c r="C2" s="1">
-        <f>('C-Ordered'!C$2-'C-Ordered'!C$6)/'C-Ordered'!C$7</f>
-        <v>-0.57735026918962584</v>
-      </c>
-      <c r="D2" s="1">
-        <f>('C-Ordered'!D$2-'C-Ordered'!D$6)/'C-Ordered'!D$7</f>
-        <v>-0.92031569366888055</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <f>('C-Ordered'!B$3-'C-Ordered'!B$6)/'C-Ordered'!B$7</f>
-        <v>-0.57735026918962551</v>
-      </c>
-      <c r="C3" s="1">
-        <f>('C-Ordered'!C$3-'C-Ordered'!C$6)/'C-Ordered'!C$7</f>
-        <v>-0.57735026918962584</v>
-      </c>
-      <c r="D3" s="1">
-        <f>('C-Ordered'!D$3-'C-Ordered'!D$6)/'C-Ordered'!D$7</f>
-        <v>-0.14379932713576235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <f>('C-Ordered'!B$4-'C-Ordered'!B$6)/'C-Ordered'!B$7</f>
-        <v>1.1547005383792501</v>
-      </c>
-      <c r="C4" s="1">
-        <f>('C-Ordered'!C$4-'C-Ordered'!C$6)/'C-Ordered'!C$7</f>
-        <v>1.1547005383792517</v>
-      </c>
-      <c r="D4" s="1">
-        <f>('C-Ordered'!D$4-'C-Ordered'!D$6)/'C-Ordered'!D$7</f>
-        <v>1.0641150208046437</v>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="13">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="5">
+        <f>AVERAGE(B2:B4)</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="C6" s="5">
+        <f>AVERAGE(C2:C4)</f>
+        <v>5</v>
+      </c>
+      <c r="D6" s="5">
+        <f>AVERAGE(D2:D4)</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="5">
+        <f>STDEV(B2:B4)</f>
+        <v>1.154700538379251</v>
+      </c>
+      <c r="C7" s="5">
+        <f>STDEV(C2:C4)</f>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="D7" s="5">
+        <f>STDEV(D2:D4)</f>
+        <v>2.309401076758502</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -1269,83 +3502,84 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja20"/>
+  <sheetPr codeName="Hoja17"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="2">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="6">
         <v>2009</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="6">
         <v>2010</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="6">
         <v>2011</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <f>('D-Ordered'!B$2-'D-Ordered'!B$6)/'D-Ordered'!B$7</f>
-        <v>0.57735026918962584</v>
-      </c>
-      <c r="C2" s="1">
-        <f>('D-Ordered'!C$2-'D-Ordered'!C$6)/'D-Ordered'!C$7</f>
-        <v>0.57735026918962584</v>
-      </c>
-      <c r="D2" s="1">
-        <f>('D-Ordered'!D$2-'D-Ordered'!D$6)/'D-Ordered'!D$7</f>
-        <v>0.57735026918962584</v>
+      <c r="A2" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="5">
+        <f>('A-Ordered'!B$2-'A-Ordered'!B$6)/'A-Ordered'!B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <f>('A-Ordered'!C$2-'A-Ordered'!C$6)/'A-Ordered'!C$7</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <f>('A-Ordered'!D$2-'A-Ordered'!D$6)/'A-Ordered'!D$7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <f>('D-Ordered'!B$3-'D-Ordered'!B$6)/'D-Ordered'!B$7</f>
-        <v>-1.1547005383792521</v>
-      </c>
-      <c r="C3" s="1">
-        <f>('D-Ordered'!C$3-'D-Ordered'!C$6)/'D-Ordered'!C$7</f>
-        <v>-1.1547005383792517</v>
-      </c>
-      <c r="D3" s="1">
-        <f>('D-Ordered'!D$3-'D-Ordered'!D$6)/'D-Ordered'!D$7</f>
-        <v>-1.1547005383792521</v>
+      <c r="A3" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="5">
+        <f>('A-Ordered'!B$3-'A-Ordered'!B$6)/'A-Ordered'!B$7</f>
+        <v>-1</v>
+      </c>
+      <c r="C3" s="5">
+        <f>('A-Ordered'!C$3-'A-Ordered'!C$6)/'A-Ordered'!C$7</f>
+        <v>-1</v>
+      </c>
+      <c r="D3" s="5">
+        <f>('A-Ordered'!D$3-'A-Ordered'!D$6)/'A-Ordered'!D$7</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="5">
+        <f>('A-Ordered'!B$4-'A-Ordered'!B$6)/'A-Ordered'!B$7</f>
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <f>('D-Ordered'!B$4-'D-Ordered'!B$6)/'D-Ordered'!B$7</f>
-        <v>0.57735026918962584</v>
-      </c>
-      <c r="C4" s="1">
-        <f>('D-Ordered'!C$4-'D-Ordered'!C$6)/'D-Ordered'!C$7</f>
-        <v>0.57735026918962584</v>
-      </c>
-      <c r="D4" s="1">
-        <f>('D-Ordered'!D$4-'D-Ordered'!D$6)/'D-Ordered'!D$7</f>
-        <v>0.57735026918962584</v>
+      <c r="C4" s="5">
+        <f>('A-Ordered'!C$4-'A-Ordered'!C$6)/'A-Ordered'!C$7</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <f>('A-Ordered'!D$4-'A-Ordered'!D$6)/'A-Ordered'!D$7</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1360,121 +3594,466 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja18"/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="6">
+        <v>2009</v>
+      </c>
+      <c r="C1" s="6">
+        <v>2010</v>
+      </c>
+      <c r="D1" s="6">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="5">
+        <f>('B-Ordered'!B$6-'B-Ordered'!B$2)/'B-Ordered'!B$7</f>
+        <v>-1</v>
+      </c>
+      <c r="C2" s="5">
+        <f>('B-Ordered'!C$6-'B-Ordered'!C$2)/'B-Ordered'!C$7</f>
+        <v>-1</v>
+      </c>
+      <c r="D2" s="5">
+        <f>('B-Ordered'!D$6-'B-Ordered'!D$2)/'B-Ordered'!D$7</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="5">
+        <f>('B-Ordered'!B$6-'B-Ordered'!B$3)/'B-Ordered'!B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <f>('B-Ordered'!C$6-'B-Ordered'!C$3)/'B-Ordered'!C$7</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <f>('B-Ordered'!D$6-'B-Ordered'!D$3)/'B-Ordered'!D$7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="5">
+        <f>('B-Ordered'!B$6-'B-Ordered'!B$4)/'B-Ordered'!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <f>('B-Ordered'!C$6-'B-Ordered'!C$4)/'B-Ordered'!C$7</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <f>('B-Ordered'!D$6-'B-Ordered'!D$4)/'B-Ordered'!D$7</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
+      <formula1>countries</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja19"/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="6">
+        <v>2009</v>
+      </c>
+      <c r="C1" s="6">
+        <v>2010</v>
+      </c>
+      <c r="D1" s="6">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="5">
+        <f>('C-Ordered'!B$2-'C-Ordered'!B$6)/'C-Ordered'!B$7</f>
+        <v>-0.57735026918962551</v>
+      </c>
+      <c r="C2" s="5">
+        <f>('C-Ordered'!C$2-'C-Ordered'!C$6)/'C-Ordered'!C$7</f>
+        <v>-0.57735026918962584</v>
+      </c>
+      <c r="D2" s="5">
+        <f>('C-Ordered'!D$2-'C-Ordered'!D$6)/'C-Ordered'!D$7</f>
+        <v>-0.92031569366888055</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="5">
+        <f>('C-Ordered'!B$3-'C-Ordered'!B$6)/'C-Ordered'!B$7</f>
+        <v>-0.57735026918962551</v>
+      </c>
+      <c r="C3" s="5">
+        <f>('C-Ordered'!C$3-'C-Ordered'!C$6)/'C-Ordered'!C$7</f>
+        <v>-0.57735026918962584</v>
+      </c>
+      <c r="D3" s="5">
+        <f>('C-Ordered'!D$3-'C-Ordered'!D$6)/'C-Ordered'!D$7</f>
+        <v>-0.14379932713576235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="5">
+        <f>('C-Ordered'!B$4-'C-Ordered'!B$6)/'C-Ordered'!B$7</f>
+        <v>1.1547005383792501</v>
+      </c>
+      <c r="C4" s="5">
+        <f>('C-Ordered'!C$4-'C-Ordered'!C$6)/'C-Ordered'!C$7</f>
+        <v>1.1547005383792517</v>
+      </c>
+      <c r="D4" s="5">
+        <f>('C-Ordered'!D$4-'C-Ordered'!D$6)/'C-Ordered'!D$7</f>
+        <v>1.0641150208046437</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
+      <formula1>countries</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja20"/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="6">
+        <v>2009</v>
+      </c>
+      <c r="C1" s="6">
+        <v>2010</v>
+      </c>
+      <c r="D1" s="6">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="5">
+        <f>('D-Ordered'!B$2-'D-Ordered'!B$6)/'D-Ordered'!B$7</f>
+        <v>0.57735026918962584</v>
+      </c>
+      <c r="C2" s="5">
+        <f>('D-Ordered'!C$2-'D-Ordered'!C$6)/'D-Ordered'!C$7</f>
+        <v>0.57735026918962584</v>
+      </c>
+      <c r="D2" s="5">
+        <f>('D-Ordered'!D$2-'D-Ordered'!D$6)/'D-Ordered'!D$7</f>
+        <v>0.57735026918962584</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="5">
+        <f>('D-Ordered'!B$3-'D-Ordered'!B$6)/'D-Ordered'!B$7</f>
+        <v>-1.1547005383792521</v>
+      </c>
+      <c r="C3" s="5">
+        <f>('D-Ordered'!C$3-'D-Ordered'!C$6)/'D-Ordered'!C$7</f>
+        <v>-1.1547005383792517</v>
+      </c>
+      <c r="D3" s="5">
+        <f>('D-Ordered'!D$3-'D-Ordered'!D$6)/'D-Ordered'!D$7</f>
+        <v>-1.1547005383792521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="5">
+        <f>('D-Ordered'!B$4-'D-Ordered'!B$6)/'D-Ordered'!B$7</f>
+        <v>0.57735026918962584</v>
+      </c>
+      <c r="C4" s="5">
+        <f>('D-Ordered'!C$4-'D-Ordered'!C$6)/'D-Ordered'!C$7</f>
+        <v>0.57735026918962584</v>
+      </c>
+      <c r="D4" s="5">
+        <f>('D-Ordered'!D$4-'D-Ordered'!D$6)/'D-Ordered'!D$7</f>
+        <v>0.57735026918962584</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
+      <formula1>countries</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="6">
+        <v>2009</v>
+      </c>
+      <c r="C1" s="6">
+        <v>2010</v>
+      </c>
+      <c r="D1" s="6">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="13">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5</v>
+      </c>
+      <c r="D4" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
+      <formula1>countries</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja23"/>
   <dimension ref="A2:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
+      <c r="A2" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>254</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>257</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>255</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>256</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
+        <v>204</v>
+      </c>
+      <c r="B3" s="5">
         <f>'A-Normalised'!D$2</f>
         <v>0</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="5">
         <f>'B-Normalised'!D$2</f>
         <v>-1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
         <f>'Survey-Normalised'!C$3</f>
         <v>1.1208970766356094</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="5">
         <f>'C-Normalised'!D$2</f>
         <v>-0.92031569366888055</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="5">
         <f>'D-Normalised'!D$2</f>
         <v>0.57735026918962584</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="5">
         <f>'Survey-Normalised'!B$3</f>
         <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
+        <v>78</v>
+      </c>
+      <c r="B4" s="5">
         <f>'A-Normalised'!D3</f>
         <v>-1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="5">
         <f>'B-Normalised'!D3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <f>'Survey-Normalised'!C$4</f>
         <v>-0.80064076902543546</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="5">
         <f>'C-Normalised'!D3</f>
         <v>-0.14379932713576235</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="5">
         <f>'D-Normalised'!D3</f>
         <v>-1.1547005383792521</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="5">
         <f>'Survey-Normalised'!B$4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
+        <v>48</v>
+      </c>
+      <c r="B5" s="5">
         <f>'A-Normalised'!D4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5">
         <f>'B-Normalised'!D4</f>
         <v>1</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <f>'Survey-Normalised'!C$5</f>
         <v>-0.32025630761017426</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="5">
         <f>'C-Normalised'!D4</f>
         <v>1.0641150208046437</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="5">
         <f>'D-Normalised'!D4</f>
         <v>0.57735026918962584</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="5">
         <f>'Survey-Normalised'!B$5</f>
         <v>1</v>
       </c>
@@ -1492,7 +4071,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>#REF!</xm:f>
+            <xm:f>Metadata!$A$252:$A$257</xm:f>
           </x14:formula1>
           <xm:sqref>B2:O2</xm:sqref>
         </x14:dataValidation>
@@ -1502,7 +4081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja24"/>
   <dimension ref="A1:G4"/>
@@ -1514,112 +4093,112 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
+      <c r="A1" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>253</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>254</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>257</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>255</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>256</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <f>'Indicators-Normalised'!B3+8</f>
+        <v>204</v>
+      </c>
+      <c r="B2" s="5">
+        <f>'Indicators-SelectYear'!B3+8</f>
         <v>8</v>
       </c>
-      <c r="C2" s="1">
-        <f>'Indicators-Normalised'!C3+8</f>
+      <c r="C2" s="5">
+        <f>'Indicators-SelectYear'!C3+8</f>
         <v>7</v>
       </c>
-      <c r="D2" s="1">
-        <f>'Indicators-Normalised'!D3+8</f>
+      <c r="D2" s="5">
+        <f>'Indicators-SelectYear'!D3+8</f>
         <v>9.1208970766356092</v>
       </c>
-      <c r="E2" s="1">
-        <f>'Indicators-Normalised'!E3+8</f>
+      <c r="E2" s="5">
+        <f>'Indicators-SelectYear'!E3+8</f>
         <v>7.079684306331119</v>
       </c>
-      <c r="F2" s="1">
-        <f>'Indicators-Normalised'!F3+8</f>
+      <c r="F2" s="5">
+        <f>'Indicators-SelectYear'!F3+8</f>
         <v>8.5773502691896262</v>
       </c>
-      <c r="G2" s="1">
-        <f>'Indicators-Normalised'!G3+8</f>
+      <c r="G2" s="5">
+        <f>'Indicators-SelectYear'!G3+8</f>
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <f>'Indicators-Normalised'!B4+8</f>
+        <v>78</v>
+      </c>
+      <c r="B3" s="5">
+        <f>'Indicators-SelectYear'!B4+8</f>
         <v>7</v>
       </c>
-      <c r="C3" s="1">
-        <f>'Indicators-Normalised'!C4+8</f>
+      <c r="C3" s="5">
+        <f>'Indicators-SelectYear'!C4+8</f>
         <v>8</v>
       </c>
-      <c r="D3" s="1">
-        <f>'Indicators-Normalised'!D4+8</f>
+      <c r="D3" s="5">
+        <f>'Indicators-SelectYear'!D4+8</f>
         <v>7.1993592309745642</v>
       </c>
-      <c r="E3" s="1">
-        <f>'Indicators-Normalised'!E4+8</f>
+      <c r="E3" s="5">
+        <f>'Indicators-SelectYear'!E4+8</f>
         <v>7.8562006728642375</v>
       </c>
-      <c r="F3" s="1">
-        <f>'Indicators-Normalised'!F4+8</f>
+      <c r="F3" s="5">
+        <f>'Indicators-SelectYear'!F4+8</f>
         <v>6.8452994616207476</v>
       </c>
-      <c r="G3" s="1">
-        <f>'Indicators-Normalised'!G4+8</f>
+      <c r="G3" s="5">
+        <f>'Indicators-SelectYear'!G4+8</f>
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <f>'Indicators-Normalised'!B5+8</f>
+        <v>48</v>
+      </c>
+      <c r="B4" s="5">
+        <f>'Indicators-SelectYear'!B5+8</f>
         <v>9</v>
       </c>
-      <c r="C4" s="1">
-        <f>'Indicators-Normalised'!C5+8</f>
+      <c r="C4" s="5">
+        <f>'Indicators-SelectYear'!C5+8</f>
         <v>9</v>
       </c>
-      <c r="D4" s="1">
-        <f>'Indicators-Normalised'!D5+8</f>
+      <c r="D4" s="5">
+        <f>'Indicators-SelectYear'!D5+8</f>
         <v>7.6797436923898257</v>
       </c>
-      <c r="E4" s="1">
-        <f>'Indicators-Normalised'!E5+8</f>
+      <c r="E4" s="5">
+        <f>'Indicators-SelectYear'!E5+8</f>
         <v>9.0641150208046444</v>
       </c>
-      <c r="F4" s="1">
-        <f>'Indicators-Normalised'!F5+8</f>
+      <c r="F4" s="5">
+        <f>'Indicators-SelectYear'!F5+8</f>
         <v>8.5773502691896262</v>
       </c>
-      <c r="G4" s="1">
-        <f>'Indicators-Normalised'!G5+8</f>
+      <c r="G4" s="5">
+        <f>'Indicators-SelectYear'!G5+8</f>
         <v>9</v>
       </c>
     </row>
@@ -1636,7 +4215,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>#REF!</xm:f>
+            <xm:f>Metadata!$A$252:$A$257</xm:f>
           </x14:formula1>
           <xm:sqref>B1:O1</xm:sqref>
         </x14:dataValidation>
@@ -1646,43 +4225,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja25"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
+      <c r="A1" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>253</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>254</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>257</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>255</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>256</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
+      <c r="A2" s="6" t="s">
+        <v>271</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1705,87 +4284,87 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="12">
+        <v>204</v>
+      </c>
+      <c r="B3" s="20">
         <f>IF(B2&gt;0,'Indicators-Adjusted'!B2*B2)</f>
         <v>8</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="20">
         <f>IF(C2&gt;0,'Indicators-Adjusted'!C2*C2)</f>
         <v>3.5</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="20">
         <f>IF(D2&gt;0,'Indicators-Adjusted'!D2*D2)</f>
         <v>9.1208970766356092</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="20">
         <f>IF(E2&gt;0,'Indicators-Adjusted'!E2*E2)</f>
         <v>3.5398421531655595</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="20">
         <f>IF(F2&gt;0,'Indicators-Adjusted'!F2*F2)</f>
         <v>8.5773502691896262</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="20">
         <f>IF(G2&gt;0,'Indicators-Adjusted'!G2*G2)</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12">
+        <v>78</v>
+      </c>
+      <c r="B4" s="20">
         <f>IF(B2&gt;0,'Indicators-Adjusted'!B3*B2)</f>
         <v>7</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="20">
         <f>IF(C2&gt;0,'Indicators-Adjusted'!C3*C2)</f>
         <v>4</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="20">
         <f>IF(D2&gt;0,'Indicators-Adjusted'!D3*D2)</f>
         <v>7.1993592309745642</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="20">
         <f>IF(E2&gt;0,'Indicators-Adjusted'!E3*E2)</f>
         <v>3.9281003364321188</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="20">
         <f>IF(F2&gt;0,'Indicators-Adjusted'!F3*F2)</f>
         <v>6.8452994616207476</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="20">
         <f>IF(G2&gt;0,'Indicators-Adjusted'!G3*G2)</f>
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="12">
+        <v>48</v>
+      </c>
+      <c r="B5" s="20">
         <f>IF(B2&gt;0,'Indicators-Adjusted'!B4*B2)</f>
         <v>9</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="20">
         <f>IF(C2&gt;0,'Indicators-Adjusted'!C4*C2)</f>
         <v>4.5</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="20">
         <f>IF(D2&gt;0,'Indicators-Adjusted'!D4*D2)</f>
         <v>7.6797436923898257</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="20">
         <f>IF(E2&gt;0,'Indicators-Adjusted'!E4*E2)</f>
         <v>4.5320575104023222</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="20">
         <f>IF(F2&gt;0,'Indicators-Adjusted'!F4*F2)</f>
         <v>8.5773502691896262</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="20">
         <f>IF(G2&gt;0,'Indicators-Adjusted'!G4*G2)</f>
         <v>4.5</v>
       </c>
@@ -1803,7 +4382,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>#REF!</xm:f>
+            <xm:f>Metadata!$A$252:$A$257</xm:f>
           </x14:formula1>
           <xm:sqref>B1:O1</xm:sqref>
         </x14:dataValidation>
@@ -1813,183 +4392,93 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="2">
-        <v>2009</v>
-      </c>
-      <c r="C1" s="2">
-        <v>2010</v>
-      </c>
-      <c r="D1" s="2">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
-      <formula1>countries</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja26"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>16</v>
+      <c r="A1" s="6" t="s">
+        <v>266</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>257</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>272</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="13">
+        <v>204</v>
+      </c>
+      <c r="B2" s="21">
         <f>AVERAGE('Indicators-Weighted'!B$3:'Indicators-Weighted'!C$3)</f>
         <v>5.75</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="21">
         <f>AVERAGE('Indicators-Weighted'!D3)</f>
         <v>9.1208970766356092</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="21">
         <f>AVERAGE('Indicators-Weighted'!E3)</f>
         <v>3.5398421531655595</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="21">
         <f>AVERAGE('Indicators-Weighted'!G3:'Indicators-Weighted'!F3)</f>
         <v>6.0386751345948131</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13">
+        <v>78</v>
+      </c>
+      <c r="B3" s="21">
         <f>AVERAGE('Indicators-Weighted'!B$4:'Indicators-Weighted'!C$4)</f>
         <v>5.5</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="21">
         <f>AVERAGE('Indicators-Weighted'!D4)</f>
         <v>7.1993592309745642</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="21">
         <f>AVERAGE('Indicators-Weighted'!E4)</f>
         <v>3.9281003364321188</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="21">
         <f>AVERAGE('Indicators-Weighted'!G4:'Indicators-Weighted'!F4)</f>
         <v>5.4226497308103738</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13">
+        <v>48</v>
+      </c>
+      <c r="B4" s="21">
         <f>AVERAGE('Indicators-Weighted'!B$5:'Indicators-Weighted'!C$5)</f>
         <v>6.75</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="21">
         <f>AVERAGE('Indicators-Weighted'!D5)</f>
         <v>7.6797436923898257</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="21">
         <f>AVERAGE('Indicators-Weighted'!E5)</f>
         <v>4.5320575104023222</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="21">
         <f>AVERAGE('Indicators-Weighted'!G5:'Indicators-Weighted'!F5)</f>
         <v>6.5386751345948131</v>
       </c>
@@ -2007,7 +4496,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>#REF!</xm:f>
+            <xm:f>Metadata!$A$261:$A$264</xm:f>
           </x14:formula1>
           <xm:sqref>B1:O1</xm:sqref>
         </x14:dataValidation>
@@ -2017,74 +4506,63 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja27"/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
+      <c r="A1" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>269</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="C2" s="13">
-        <v>0.6</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="21">
+        <f>AVERAGE('Clusters-Grouped'!B2:'Clusters-Grouped'!C2)</f>
+        <v>7.4354485383178046</v>
+      </c>
+      <c r="C2" s="21">
+        <f>AVERAGE('Clusters-Grouped'!D2:'Clusters-Grouped'!E2)</f>
+        <v>4.7892586438801867</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="13">
-        <f>AVERAGE('Clusters-Grouped'!B2:'Clusters-Grouped'!C2)</f>
-        <v>7.4354485383178046</v>
-      </c>
-      <c r="C3" s="13">
-        <f>AVERAGE('Clusters-Grouped'!D2:'Clusters-Grouped'!E2)</f>
-        <v>4.7892586438801867</v>
+        <v>78</v>
+      </c>
+      <c r="B3" s="21">
+        <f>AVERAGE('Clusters-Grouped'!B3:'Clusters-Grouped'!C3)</f>
+        <v>6.3496796154872825</v>
+      </c>
+      <c r="C3" s="21">
+        <f>AVERAGE('Clusters-Grouped'!D3:'Clusters-Grouped'!E3)</f>
+        <v>4.6753750336212461</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="13">
-        <f>AVERAGE('Clusters-Grouped'!B3:'Clusters-Grouped'!C3)</f>
-        <v>6.3496796154872825</v>
-      </c>
-      <c r="C4" s="13">
-        <f>AVERAGE('Clusters-Grouped'!D3:'Clusters-Grouped'!E3)</f>
-        <v>4.6753750336212461</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="13">
+        <v>48</v>
+      </c>
+      <c r="B4" s="21">
         <f>AVERAGE('Clusters-Grouped'!B4:'Clusters-Grouped'!C4)</f>
         <v>7.2148718461949128</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C4" s="21">
         <f>AVERAGE('Clusters-Grouped'!D4:'Clusters-Grouped'!E4)</f>
         <v>5.5353663224985681</v>
       </c>
@@ -2092,18 +4570,17 @@
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>countries</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>#REF!</xm:f>
+            <xm:f>Metadata!$A$267:$A$268</xm:f>
           </x14:formula1>
           <xm:sqref>B1:C1</xm:sqref>
         </x14:dataValidation>
@@ -2113,49 +4590,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja28"/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>21</v>
+      <c r="A1" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>204</v>
       </c>
       <c r="B2">
-        <f>'Subindex-Grouped'!B3*'Subindex-Grouped'!B2+'Subindex-Grouped'!C3*'Subindex-Grouped'!C2</f>
+        <f>'Subindex-Grouped'!B2*Metadata!B267+'Subindex-Grouped'!C2*Metadata!B268</f>
         <v>5.8477346016552341</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="B3">
-        <f>'Subindex-Grouped'!B4*'Subindex-Grouped'!B2+'Subindex-Grouped'!C4*'Subindex-Grouped'!C2</f>
+        <f>'Subindex-Grouped'!B3*Metadata!B267+'Subindex-Grouped'!C3*Metadata!B268</f>
         <v>5.3450968663676601</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B4">
-        <f>'Subindex-Grouped'!B5*'Subindex-Grouped'!B2+'Subindex-Grouped'!C5*'Subindex-Grouped'!C2</f>
+        <f>'Subindex-Grouped'!B4*Metadata!B267+'Subindex-Grouped'!C4*Metadata!B268</f>
         <v>6.2071685319771062</v>
       </c>
     </row>
@@ -2170,158 +4647,158 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja29"/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>265</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>21</v>
+        <v>265</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>257</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>269</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>255</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>264</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>22</v>
+        <v>270</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="14">
+      <c r="A3" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="22">
         <f>RANK('Clusters-Grouped'!B2,'Clusters-Grouped'!B$2:B$4)</f>
         <v>2</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="22">
         <f>RANK('Clusters-Grouped'!C2,'Clusters-Grouped'!C$2:C$4)</f>
         <v>1</v>
       </c>
-      <c r="D3" s="14">
-        <f>RANK('Subindex-Grouped'!B3,'Subindex-Grouped'!B$3:B$5)</f>
+      <c r="D3" s="22">
+        <f>RANK('Subindex-Grouped'!B2,'Subindex-Grouped'!B$2:B$4)</f>
         <v>1</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="22">
         <f>RANK('Clusters-Grouped'!D2,'Clusters-Grouped'!D$2:D$4)</f>
         <v>3</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="22">
         <f>RANK('Clusters-Grouped'!E2,'Clusters-Grouped'!E$2:E$4)</f>
         <v>2</v>
       </c>
-      <c r="G3" s="14">
-        <f>RANK('Subindex-Grouped'!C3,'Subindex-Grouped'!C$3:C$5)</f>
+      <c r="G3" s="22">
+        <f>RANK('Subindex-Grouped'!C2,'Subindex-Grouped'!C$2:C$4)</f>
         <v>2</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="24">
         <f>RANK(Composite!B2,Composite!B$2:B$4)</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="14">
+        <v>78</v>
+      </c>
+      <c r="B4" s="22">
         <f>RANK('Clusters-Grouped'!B3,'Clusters-Grouped'!B$2:B$4)</f>
         <v>3</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="22">
         <f>RANK('Clusters-Grouped'!C3,'Clusters-Grouped'!C$2:C$4)</f>
         <v>3</v>
       </c>
-      <c r="D4" s="14">
-        <f>RANK('Subindex-Grouped'!B4,'Subindex-Grouped'!B$3:B$5)</f>
+      <c r="D4" s="22">
+        <f>RANK('Subindex-Grouped'!B3,'Subindex-Grouped'!B$2:B$4)</f>
         <v>3</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="22">
         <f>RANK('Clusters-Grouped'!D3,'Clusters-Grouped'!D$2:D$4)</f>
         <v>2</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="22">
         <f>RANK('Clusters-Grouped'!E3,'Clusters-Grouped'!E$2:E$4)</f>
         <v>3</v>
       </c>
-      <c r="G4" s="14">
-        <f>RANK('Subindex-Grouped'!C4,'Subindex-Grouped'!C$3:C$5)</f>
+      <c r="G4" s="22">
+        <f>RANK('Subindex-Grouped'!C3,'Subindex-Grouped'!C$2:C$4)</f>
         <v>3</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="24">
         <f>RANK(Composite!B3,Composite!B$2:B$4)</f>
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="14">
+        <v>48</v>
+      </c>
+      <c r="B5" s="22">
         <f>RANK('Clusters-Grouped'!B4,'Clusters-Grouped'!B$2:B$4)</f>
         <v>1</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="22">
         <f>RANK('Clusters-Grouped'!C4,'Clusters-Grouped'!C$2:C$4)</f>
         <v>2</v>
       </c>
-      <c r="D5" s="14">
-        <f>RANK('Subindex-Grouped'!B5,'Subindex-Grouped'!B$3:B$5)</f>
+      <c r="D5" s="22">
+        <f>RANK('Subindex-Grouped'!B4,'Subindex-Grouped'!B$2:B$4)</f>
         <v>2</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="22">
         <f>RANK('Clusters-Grouped'!D4,'Clusters-Grouped'!D$2:D$4)</f>
         <v>1</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="22">
         <f>RANK('Clusters-Grouped'!E4,'Clusters-Grouped'!E$2:E$4)</f>
         <v>1</v>
       </c>
-      <c r="G5" s="14">
-        <f>RANK('Subindex-Grouped'!C5,'Subindex-Grouped'!C$3:C$5)</f>
+      <c r="G5" s="22">
+        <f>RANK('Subindex-Grouped'!C4,'Subindex-Grouped'!C$2:C$4)</f>
         <v>1</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="24">
         <f>RANK(Composite!B4,Composite!B$2:B$4)</f>
         <v>1</v>
       </c>
@@ -2332,55 +4809,55 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja30"/>
   <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>4</v>
+        <v>244</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="5">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="5">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="A5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="13">
         <v>8</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="13">
         <v>4</v>
       </c>
     </row>
@@ -2394,7 +4871,7 @@
         <v>4.666666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2407,7 +4884,7 @@
         <v>2.0816659994661335</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2420,7 +4897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C5"/>
   <sheetViews>
@@ -2432,47 +4909,47 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>4</v>
+        <v>244</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="5">
         <f>('Survey-Raw'!B$3-'Survey-Raw'!B$7)/'Survey-Raw'!B$8</f>
         <v>-1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="5">
         <f>('Survey-Raw'!C$3-'Survey-Raw'!C$7)/'Survey-Raw'!C$8</f>
         <v>1.1208970766356094</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="5">
         <f>('Survey-Raw'!B$4-'Survey-Raw'!B$7)/'Survey-Raw'!B$8</f>
         <v>0</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="5">
         <f>('Survey-Raw'!C$4-'Survey-Raw'!C$7)/'Survey-Raw'!C$8</f>
         <v>-0.80064076902543546</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="5">
         <f>('Survey-Raw'!B$5-'Survey-Raw'!B$7)/'Survey-Raw'!B$8</f>
         <v>1</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5">
         <f>('Survey-Raw'!C$5-'Survey-Raw'!C$7)/'Survey-Raw'!C$8</f>
         <v>-0.32025630761017426</v>
       </c>
@@ -2489,7 +4966,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja3"/>
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -2498,69 +4975,71 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="2">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="6">
         <v>2009</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="6">
         <v>2010</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="6">
         <v>2011</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="5">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="13">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="C4" s="5">
+        <v>4</v>
+      </c>
+      <c r="D4" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13">
         <v>4</v>
       </c>
     </row>
@@ -2577,7 +5056,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja6"/>
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -2586,71 +5065,70 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="2">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="6">
         <v>2009</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="6">
         <v>2010</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="6">
         <v>2011</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="5">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="5">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5">
         <v>6</v>
       </c>
-      <c r="D2" s="1">
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="13">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2666,8 +5144,8 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja7"/>
-  <dimension ref="A1:D6"/>
+  <sheetPr codeName="Hoja4"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
@@ -2675,88 +5153,96 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="9" style="9"/>
+    <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="2">
-        <v>2009</v>
-      </c>
-      <c r="C1" s="2">
-        <v>2010</v>
-      </c>
-      <c r="D1" s="2">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="6">
         <v>2011</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="13">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7">
-        <f>AVERAGE(B3,D3)</f>
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="27"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1048576">
       <formula1>countries</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>datatype</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>indicators</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2766,93 +5252,104 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja8"/>
-  <dimension ref="A1:D6"/>
+  <sheetPr codeName="Hoja5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="9" style="9"/>
+    <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="2">
-        <v>2009</v>
-      </c>
-      <c r="C1" s="2">
-        <v>2010</v>
-      </c>
-      <c r="D1" s="2">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="6">
         <v>2011</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="5">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="27"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>indicators</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>datatype</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1048576">
       <formula1>countries</formula1>
     </dataValidation>
   </dataValidations>
@@ -2863,8 +5360,8 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja9"/>
-  <dimension ref="A1:D6"/>
+  <sheetPr codeName="Hoja6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
@@ -2872,82 +5369,72 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="2">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="6">
         <v>2009</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="6">
         <v>2010</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="6">
         <v>2011</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="5">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="D3" s="5">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="13">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7">
-        <f>AVERAGE(B3,D3)</f>
-        <v>5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8</v>
-      </c>
-      <c r="D4" s="8">
-        <f>C4*AVERAGE(C4/B4)</f>
-        <v>10.666666666666666</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2962,8 +5449,8 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja10"/>
-  <dimension ref="A1:D7"/>
+  <sheetPr codeName="Hoja7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
@@ -2971,78 +5458,83 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="11.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="2">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="6">
         <v>2009</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="6">
         <v>2010</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="6">
         <v>2011</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="D2" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15">
+        <f>AVERAGE(B3,D3)</f>
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="13">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="D4" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="C5" s="16">
         <v>1</v>
       </c>
-      <c r="C5" s="8">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D7" s="11"/>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -3057,112 +5549,89 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja11"/>
-  <dimension ref="A1:E7"/>
+  <sheetPr codeName="Hoja8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E7"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="2">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="6">
         <v>2009</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="6">
         <v>2010</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="6">
         <v>2011</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="5">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="13">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4</v>
+      </c>
+      <c r="D4" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="13">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7">
-        <f>AVERAGE(B3,D3)</f>
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="D5" s="13">
         <v>4</v>
       </c>
-      <c r="D4" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
-        <f>AVERAGE(B2:B4)</f>
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <f>AVERAGE(C2:C4)</f>
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <f>AVERAGE(D2:D4)</f>
-        <v>5</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
-        <f>STDEV(B2:B4)</f>
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <f>STDEV(C2:C4)</f>
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <f>STDEV(D2:D4)</f>
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/examples/WebIndexSimple/dataSimple0.4.xlsx
+++ b/examples/WebIndexSimple/dataSimple0.4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16536" windowHeight="7908" tabRatio="554" firstSheet="17" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16536" windowHeight="7908" tabRatio="554" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -3942,7 +3942,7 @@
   <sheetPr codeName="Hoja23"/>
   <dimension ref="A2:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -4658,7 +4658,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>266</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>263</v>
       </c>
@@ -5363,7 +5363,7 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>

--- a/examples/WebIndexSimple/dataSimple0.4.xlsx
+++ b/examples/WebIndexSimple/dataSimple0.4.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16536" windowHeight="7908" tabRatio="554" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16536" windowHeight="7908" tabRatio="554" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
     <sheet name="A-RAW" sheetId="2" r:id="rId2"/>
     <sheet name="B-RAW" sheetId="6" r:id="rId3"/>
     <sheet name="C-RAW" sheetId="7" r:id="rId4"/>
-    <sheet name="Q1" sheetId="32" r:id="rId5"/>
-    <sheet name="Q2" sheetId="33" r:id="rId6"/>
-    <sheet name="D-Raw" sheetId="8" r:id="rId7"/>
+    <sheet name="D-Raw" sheetId="8" r:id="rId5"/>
+    <sheet name="Q1" sheetId="32" r:id="rId6"/>
+    <sheet name="Q2" sheetId="33" r:id="rId7"/>
     <sheet name="A-Imputed" sheetId="28" r:id="rId8"/>
     <sheet name="B-Imputed" sheetId="29" r:id="rId9"/>
     <sheet name="C-Imputed" sheetId="30" r:id="rId10"/>
@@ -31,7 +31,7 @@
     <sheet name="B-Normalised" sheetId="15" r:id="rId17"/>
     <sheet name="C-Normalised" sheetId="14" r:id="rId18"/>
     <sheet name="D-Normalised" sheetId="16" r:id="rId19"/>
-    <sheet name="Indicators-SelectYear" sheetId="21" r:id="rId20"/>
+    <sheet name="Indicators-Cluster" sheetId="21" r:id="rId20"/>
     <sheet name="Indicators-Adjusted" sheetId="24" r:id="rId21"/>
     <sheet name="Indicators-Weighted" sheetId="25" r:id="rId22"/>
     <sheet name="Clusters-Grouped" sheetId="22" r:id="rId23"/>
@@ -2859,7 +2859,7 @@
   <sheetPr codeName="Hoja9"/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -4120,27 +4120,27 @@
         <v>204</v>
       </c>
       <c r="B2" s="5">
-        <f>'Indicators-SelectYear'!B3+8</f>
+        <f>'Indicators-Cluster'!B3+8</f>
         <v>8</v>
       </c>
       <c r="C2" s="5">
-        <f>'Indicators-SelectYear'!C3+8</f>
+        <f>'Indicators-Cluster'!C3+8</f>
         <v>7</v>
       </c>
       <c r="D2" s="5">
-        <f>'Indicators-SelectYear'!D3+8</f>
+        <f>'Indicators-Cluster'!D3+8</f>
         <v>9.1208970766356092</v>
       </c>
       <c r="E2" s="5">
-        <f>'Indicators-SelectYear'!E3+8</f>
+        <f>'Indicators-Cluster'!E3+8</f>
         <v>7.079684306331119</v>
       </c>
       <c r="F2" s="5">
-        <f>'Indicators-SelectYear'!F3+8</f>
+        <f>'Indicators-Cluster'!F3+8</f>
         <v>8.5773502691896262</v>
       </c>
       <c r="G2" s="5">
-        <f>'Indicators-SelectYear'!G3+8</f>
+        <f>'Indicators-Cluster'!G3+8</f>
         <v>7</v>
       </c>
     </row>
@@ -4149,27 +4149,27 @@
         <v>78</v>
       </c>
       <c r="B3" s="5">
-        <f>'Indicators-SelectYear'!B4+8</f>
+        <f>'Indicators-Cluster'!B4+8</f>
         <v>7</v>
       </c>
       <c r="C3" s="5">
-        <f>'Indicators-SelectYear'!C4+8</f>
+        <f>'Indicators-Cluster'!C4+8</f>
         <v>8</v>
       </c>
       <c r="D3" s="5">
-        <f>'Indicators-SelectYear'!D4+8</f>
+        <f>'Indicators-Cluster'!D4+8</f>
         <v>7.1993592309745642</v>
       </c>
       <c r="E3" s="5">
-        <f>'Indicators-SelectYear'!E4+8</f>
+        <f>'Indicators-Cluster'!E4+8</f>
         <v>7.8562006728642375</v>
       </c>
       <c r="F3" s="5">
-        <f>'Indicators-SelectYear'!F4+8</f>
+        <f>'Indicators-Cluster'!F4+8</f>
         <v>6.8452994616207476</v>
       </c>
       <c r="G3" s="5">
-        <f>'Indicators-SelectYear'!G4+8</f>
+        <f>'Indicators-Cluster'!G4+8</f>
         <v>8</v>
       </c>
     </row>
@@ -4178,27 +4178,27 @@
         <v>48</v>
       </c>
       <c r="B4" s="5">
-        <f>'Indicators-SelectYear'!B5+8</f>
+        <f>'Indicators-Cluster'!B5+8</f>
         <v>9</v>
       </c>
       <c r="C4" s="5">
-        <f>'Indicators-SelectYear'!C5+8</f>
+        <f>'Indicators-Cluster'!C5+8</f>
         <v>9</v>
       </c>
       <c r="D4" s="5">
-        <f>'Indicators-SelectYear'!D5+8</f>
+        <f>'Indicators-Cluster'!D5+8</f>
         <v>7.6797436923898257</v>
       </c>
       <c r="E4" s="5">
-        <f>'Indicators-SelectYear'!E5+8</f>
+        <f>'Indicators-Cluster'!E5+8</f>
         <v>9.0641150208046444</v>
       </c>
       <c r="F4" s="5">
-        <f>'Indicators-SelectYear'!F5+8</f>
+        <f>'Indicators-Cluster'!F5+8</f>
         <v>8.5773502691896262</v>
       </c>
       <c r="G4" s="5">
-        <f>'Indicators-SelectYear'!G5+8</f>
+        <f>'Indicators-Cluster'!G5+8</f>
         <v>9</v>
       </c>
     </row>
@@ -4398,7 +4398,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -4512,7 +4512,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -4596,7 +4596,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -4653,7 +4653,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -5144,6 +5144,95 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja6"/>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="6">
+        <v>2009</v>
+      </c>
+      <c r="C1" s="6">
+        <v>2010</v>
+      </c>
+      <c r="D1" s="6">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="5">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="13">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
+      <formula1>countries</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -5250,7 +5339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:C10"/>
@@ -5350,95 +5439,6 @@
       <formula1>datatype</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1048576">
-      <formula1>countries</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja6"/>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="6">
-        <v>2009</v>
-      </c>
-      <c r="C1" s="6">
-        <v>2010</v>
-      </c>
-      <c r="D1" s="6">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="5">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="5">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="13">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5">
-        <v>6</v>
-      </c>
-      <c r="D4" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="13">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
       <formula1>countries</formula1>
     </dataValidation>
   </dataValidations>

--- a/examples/WebIndexSimple/dataSimple0.4.xlsx
+++ b/examples/WebIndexSimple/dataSimple0.4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16536" windowHeight="7908" tabRatio="554" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16320" windowHeight="5664" tabRatio="554" firstSheet="22" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -31,27 +31,31 @@
     <sheet name="B-Normalised" sheetId="15" r:id="rId17"/>
     <sheet name="C-Normalised" sheetId="14" r:id="rId18"/>
     <sheet name="D-Normalised" sheetId="16" r:id="rId19"/>
-    <sheet name="Indicators-Cluster" sheetId="21" r:id="rId20"/>
-    <sheet name="Indicators-Adjusted" sheetId="24" r:id="rId21"/>
-    <sheet name="Indicators-Weighted" sheetId="25" r:id="rId22"/>
-    <sheet name="Clusters-Grouped" sheetId="22" r:id="rId23"/>
-    <sheet name="Subindex-Grouped" sheetId="26" r:id="rId24"/>
-    <sheet name="Composite" sheetId="27" r:id="rId25"/>
-    <sheet name="Rankings" sheetId="20" r:id="rId26"/>
-    <sheet name="Survey-Raw" sheetId="34" r:id="rId27"/>
-    <sheet name="Survey-Normalised" sheetId="35" r:id="rId28"/>
+    <sheet name="Indicators-Cluster-2010" sheetId="36" r:id="rId20"/>
+    <sheet name="Indicators-Weighted-2010" sheetId="37" r:id="rId21"/>
+    <sheet name="Clusters-Grouped-2010" sheetId="38" r:id="rId22"/>
+    <sheet name="Subindex-Grouped-2010" sheetId="39" r:id="rId23"/>
+    <sheet name="Composite-2010" sheetId="40" r:id="rId24"/>
+    <sheet name="Indicators-Cluster-2012" sheetId="21" r:id="rId25"/>
+    <sheet name="Indicators-Weighted-2012" sheetId="25" r:id="rId26"/>
+    <sheet name="Clusters-Grouped-2012" sheetId="22" r:id="rId27"/>
+    <sheet name="Subindex-Grouped-2012" sheetId="26" r:id="rId28"/>
+    <sheet name="Composite-2012" sheetId="27" r:id="rId29"/>
+    <sheet name="Rankings-2012" sheetId="20" r:id="rId30"/>
+    <sheet name="Survey-Raw" sheetId="34" r:id="rId31"/>
+    <sheet name="Survey-Normalised" sheetId="35" r:id="rId32"/>
   </sheets>
   <definedNames>
     <definedName name="countries">Metadata!$A$14:$A$249</definedName>
     <definedName name="datatype">Metadata!$A$5:$A$7</definedName>
     <definedName name="indicators">Metadata!$A$252:$A$336</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="283">
   <si>
     <t>Raw</t>
   </si>
@@ -909,7 +913,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -992,6 +996,12 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1063,7 +1073,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1104,6 +1114,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2859,7 +2870,7 @@
   <sheetPr codeName="Hoja9"/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -3684,7 +3695,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -3770,7 +3781,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -3939,128 +3950,97 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja23"/>
-  <dimension ref="A2:G5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B1" t="s">
         <v>253</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C1" t="s">
         <v>254</v>
       </c>
-      <c r="D2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D1" t="s">
         <v>255</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E1" t="s">
         <v>256</v>
       </c>
-      <c r="G2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="5">
+        <f>'A-Normalised'!B$2</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <f>'B-Normalised'!B$2</f>
+        <v>-1</v>
+      </c>
+      <c r="D2" s="5">
+        <f>'C-Normalised'!B$2</f>
+        <v>-0.57735026918962551</v>
+      </c>
+      <c r="E2" s="5">
+        <f>'D-Normalised'!B$2</f>
+        <v>0.57735026918962584</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="B3" s="5">
-        <f>'A-Normalised'!D$2</f>
+        <f>'A-Normalised'!B3</f>
+        <v>-1</v>
+      </c>
+      <c r="C3" s="5">
+        <f>'B-Normalised'!B3</f>
         <v>0</v>
       </c>
-      <c r="C3" s="5">
-        <f>'B-Normalised'!D$2</f>
-        <v>-1</v>
-      </c>
       <c r="D3" s="5">
-        <f>'Survey-Normalised'!C$3</f>
-        <v>1.1208970766356094</v>
+        <f>'C-Normalised'!B3</f>
+        <v>-0.57735026918962551</v>
       </c>
       <c r="E3" s="5">
-        <f>'C-Normalised'!D$2</f>
-        <v>-0.92031569366888055</v>
-      </c>
-      <c r="F3" s="5">
-        <f>'D-Normalised'!D$2</f>
+        <f>'D-Normalised'!B3</f>
+        <v>-1.1547005383792521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="5">
+        <f>'A-Normalised'!B4</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <f>'B-Normalised'!B4</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <f>'C-Normalised'!B4</f>
+        <v>1.1547005383792501</v>
+      </c>
+      <c r="E4" s="5">
+        <f>'D-Normalised'!B4</f>
         <v>0.57735026918962584</v>
-      </c>
-      <c r="G3" s="5">
-        <f>'Survey-Normalised'!B$3</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="5">
-        <f>'A-Normalised'!D3</f>
-        <v>-1</v>
-      </c>
-      <c r="C4" s="5">
-        <f>'B-Normalised'!D3</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <f>'Survey-Normalised'!C$4</f>
-        <v>-0.80064076902543546</v>
-      </c>
-      <c r="E4" s="5">
-        <f>'C-Normalised'!D3</f>
-        <v>-0.14379932713576235</v>
-      </c>
-      <c r="F4" s="5">
-        <f>'D-Normalised'!D3</f>
-        <v>-1.1547005383792521</v>
-      </c>
-      <c r="G4" s="5">
-        <f>'Survey-Normalised'!B$4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="5">
-        <f>'A-Normalised'!D4</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <f>'B-Normalised'!D4</f>
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <f>'Survey-Normalised'!C$5</f>
-        <v>-0.32025630761017426</v>
-      </c>
-      <c r="E5" s="5">
-        <f>'C-Normalised'!D4</f>
-        <v>1.0641150208046437</v>
-      </c>
-      <c r="F5" s="5">
-        <f>'D-Normalised'!D4</f>
-        <v>0.57735026918962584</v>
-      </c>
-      <c r="G5" s="5">
-        <f>'Survey-Normalised'!B$5</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A75:A339 A3:A6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A74:A338 A2:A5">
       <formula1>countries</formula1>
     </dataValidation>
   </dataValidations>
@@ -4073,7 +4053,7 @@
           <x14:formula1>
             <xm:f>Metadata!$A$252:$A$257</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:O2</xm:sqref>
+          <xm:sqref>B1:M1</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4083,7 +4063,390 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja24"/>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="20">
+        <f>IF(B2&gt;0,'Indicators-Cluster-2010'!B2*B2)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="20">
+        <f>IF(C2&gt;0,'Indicators-Cluster-2010'!C2*C2)</f>
+        <v>-0.5</v>
+      </c>
+      <c r="D3" s="20">
+        <f>IF(D2&gt;0,'Indicators-Cluster-2010'!D2*D2)</f>
+        <v>-0.28867513459481275</v>
+      </c>
+      <c r="E3" s="20">
+        <f>IF(E2&gt;0,'Indicators-Cluster-2010'!E2*E2)</f>
+        <v>0.57735026918962584</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="20">
+        <f>IF(B2&gt;0,'Indicators-Cluster-2010'!B3*B2)</f>
+        <v>-1</v>
+      </c>
+      <c r="C4" s="20">
+        <f>IF(C2&gt;0,'Indicators-Cluster-2010'!C3*C2)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="20">
+        <f>IF(D2&gt;0,'Indicators-Cluster-2010'!D3*D2)</f>
+        <v>-0.28867513459481275</v>
+      </c>
+      <c r="E4" s="20">
+        <f>IF(E2&gt;0,'Indicators-Cluster-2010'!E3*E2)</f>
+        <v>-1.1547005383792521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="20">
+        <f>IF(B2&gt;0,'Indicators-Cluster-2010'!B4*B2)</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="20">
+        <f>IF(C2&gt;0,'Indicators-Cluster-2010'!C4*C2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="20">
+        <f>IF(D2&gt;0,'Indicators-Cluster-2010'!D4*D2)</f>
+        <v>0.57735026918962506</v>
+      </c>
+      <c r="E5" s="20">
+        <f>IF(E2&gt;0,'Indicators-Cluster-2010'!E4*E2)</f>
+        <v>0.57735026918962584</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A73:A337 A3:A5">
+      <formula1>countries</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Metadata!$A$252:$A$257</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:M1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="21">
+        <f>AVERAGE('Indicators-Weighted-2010'!B$3:'Indicators-Weighted-2010'!C$3)</f>
+        <v>-0.25</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <f>AVERAGE('Indicators-Weighted-2010'!D3)</f>
+        <v>-0.28867513459481275</v>
+      </c>
+      <c r="E2" s="21">
+        <f>AVERAGE('Indicators-Weighted-2010'!E3)</f>
+        <v>0.57735026918962584</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="21">
+        <f>AVERAGE('Indicators-Weighted-2010'!B$4:'Indicators-Weighted-2010'!C$4)</f>
+        <v>-0.5</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <f>AVERAGE('Indicators-Weighted-2010'!D4)</f>
+        <v>-0.28867513459481275</v>
+      </c>
+      <c r="E3" s="21">
+        <f>AVERAGE('Indicators-Weighted-2010'!E4)</f>
+        <v>-1.1547005383792521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="21">
+        <f>AVERAGE('Indicators-Weighted-2010'!B$5:'Indicators-Weighted-2010'!C$5)</f>
+        <v>0.75</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0</v>
+      </c>
+      <c r="D4" s="21">
+        <f>AVERAGE('Indicators-Weighted-2010'!D5)</f>
+        <v>0.57735026918962506</v>
+      </c>
+      <c r="E4" s="21">
+        <f>AVERAGE('Indicators-Weighted-2010'!E5)</f>
+        <v>0.57735026918962584</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+      <formula1>countries</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Metadata!$A$261:$A$264</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:O1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="21">
+        <f>SUM('Clusters-Grouped-2010'!B2:'Clusters-Grouped-2010'!C2)</f>
+        <v>-0.25</v>
+      </c>
+      <c r="C2" s="21">
+        <f>SUM('Clusters-Grouped-2010'!D2:'Clusters-Grouped-2010'!E2)</f>
+        <v>0.28867513459481309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="21">
+        <f>SUM('Clusters-Grouped-2010'!B3:'Clusters-Grouped-2010'!C3)</f>
+        <v>-0.5</v>
+      </c>
+      <c r="C3" s="21">
+        <f>SUM('Clusters-Grouped-2010'!D3:'Clusters-Grouped-2010'!E3)</f>
+        <v>-1.443375672974065</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="21">
+        <f>SUM('Clusters-Grouped-2010'!B4:'Clusters-Grouped-2010'!C4)</f>
+        <v>0.75</v>
+      </c>
+      <c r="C4" s="21">
+        <f>SUM('Clusters-Grouped-2010'!D4:'Clusters-Grouped-2010'!E4)</f>
+        <v>1.154700538379251</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+      <formula1>countries</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Metadata!$A$267:$A$268</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:C1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2">
+        <f>'Subindex-Grouped-2010'!B2*Metadata!B267+'Subindex-Grouped-2010'!C2*Metadata!B268</f>
+        <v>7.3205080756887836E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3">
+        <f>'Subindex-Grouped-2010'!B3*Metadata!B267+'Subindex-Grouped-2010'!C3*Metadata!B268</f>
+        <v>-1.066025403784439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <f>'Subindex-Grouped-2010'!B4*Metadata!B267+'Subindex-Grouped-2010'!C4*Metadata!B268</f>
+        <v>0.99282032302755063</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="30"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+      <formula1>countries</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja23"/>
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4120,28 +4483,28 @@
         <v>204</v>
       </c>
       <c r="B2" s="5">
-        <f>'Indicators-Cluster'!B3+8</f>
-        <v>8</v>
+        <f>'A-Normalised'!D$2</f>
+        <v>0</v>
       </c>
       <c r="C2" s="5">
-        <f>'Indicators-Cluster'!C3+8</f>
-        <v>7</v>
+        <f>'B-Normalised'!D$2</f>
+        <v>-1</v>
       </c>
       <c r="D2" s="5">
-        <f>'Indicators-Cluster'!D3+8</f>
-        <v>9.1208970766356092</v>
+        <f>'Survey-Normalised'!C$3</f>
+        <v>1.1208970766356094</v>
       </c>
       <c r="E2" s="5">
-        <f>'Indicators-Cluster'!E3+8</f>
-        <v>7.079684306331119</v>
+        <f>'C-Normalised'!D$2</f>
+        <v>-0.92031569366888055</v>
       </c>
       <c r="F2" s="5">
-        <f>'Indicators-Cluster'!F3+8</f>
-        <v>8.5773502691896262</v>
+        <f>'D-Normalised'!D$2</f>
+        <v>0.57735026918962584</v>
       </c>
       <c r="G2" s="5">
-        <f>'Indicators-Cluster'!G3+8</f>
-        <v>7</v>
+        <f>'Survey-Normalised'!B$3</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4149,28 +4512,28 @@
         <v>78</v>
       </c>
       <c r="B3" s="5">
-        <f>'Indicators-Cluster'!B4+8</f>
-        <v>7</v>
+        <f>'A-Normalised'!D3</f>
+        <v>-1</v>
       </c>
       <c r="C3" s="5">
-        <f>'Indicators-Cluster'!C4+8</f>
-        <v>8</v>
+        <f>'B-Normalised'!D3</f>
+        <v>0</v>
       </c>
       <c r="D3" s="5">
-        <f>'Indicators-Cluster'!D4+8</f>
-        <v>7.1993592309745642</v>
+        <f>'Survey-Normalised'!C$4</f>
+        <v>-0.80064076902543546</v>
       </c>
       <c r="E3" s="5">
-        <f>'Indicators-Cluster'!E4+8</f>
-        <v>7.8562006728642375</v>
+        <f>'C-Normalised'!D3</f>
+        <v>-0.14379932713576235</v>
       </c>
       <c r="F3" s="5">
-        <f>'Indicators-Cluster'!F4+8</f>
-        <v>6.8452994616207476</v>
+        <f>'D-Normalised'!D3</f>
+        <v>-1.1547005383792521</v>
       </c>
       <c r="G3" s="5">
-        <f>'Indicators-Cluster'!G4+8</f>
-        <v>8</v>
+        <f>'Survey-Normalised'!B$4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4178,33 +4541,33 @@
         <v>48</v>
       </c>
       <c r="B4" s="5">
-        <f>'Indicators-Cluster'!B5+8</f>
-        <v>9</v>
+        <f>'A-Normalised'!D4</f>
+        <v>1</v>
       </c>
       <c r="C4" s="5">
-        <f>'Indicators-Cluster'!C5+8</f>
-        <v>9</v>
+        <f>'B-Normalised'!D4</f>
+        <v>1</v>
       </c>
       <c r="D4" s="5">
-        <f>'Indicators-Cluster'!D5+8</f>
-        <v>7.6797436923898257</v>
+        <f>'Survey-Normalised'!C$5</f>
+        <v>-0.32025630761017426</v>
       </c>
       <c r="E4" s="5">
-        <f>'Indicators-Cluster'!E5+8</f>
-        <v>9.0641150208046444</v>
+        <f>'C-Normalised'!D4</f>
+        <v>1.0641150208046437</v>
       </c>
       <c r="F4" s="5">
-        <f>'Indicators-Cluster'!F5+8</f>
-        <v>8.5773502691896262</v>
+        <f>'D-Normalised'!D4</f>
+        <v>0.57735026918962584</v>
       </c>
       <c r="G4" s="5">
-        <f>'Indicators-Cluster'!G5+8</f>
-        <v>9</v>
+        <f>'Survey-Normalised'!B$5</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A73:A337 A2:A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A74:A338 A2:A5">
       <formula1>countries</formula1>
     </dataValidation>
   </dataValidations>
@@ -4225,13 +4588,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja25"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -4287,28 +4650,28 @@
         <v>204</v>
       </c>
       <c r="B3" s="20">
-        <f>IF(B2&gt;0,'Indicators-Adjusted'!B2*B2)</f>
-        <v>8</v>
+        <f>IF(B2&gt;0,'Indicators-Cluster-2012'!B2*B2)</f>
+        <v>0</v>
       </c>
       <c r="C3" s="20">
-        <f>IF(C2&gt;0,'Indicators-Adjusted'!C2*C2)</f>
-        <v>3.5</v>
+        <f>IF(C2&gt;0,'Indicators-Cluster-2012'!C2*C2)</f>
+        <v>-0.5</v>
       </c>
       <c r="D3" s="20">
-        <f>IF(D2&gt;0,'Indicators-Adjusted'!D2*D2)</f>
-        <v>9.1208970766356092</v>
+        <f>IF(D2&gt;0,'Indicators-Cluster-2012'!D2*D2)</f>
+        <v>1.1208970766356094</v>
       </c>
       <c r="E3" s="20">
-        <f>IF(E2&gt;0,'Indicators-Adjusted'!E2*E2)</f>
-        <v>3.5398421531655595</v>
+        <f>IF(E2&gt;0,'Indicators-Cluster-2012'!E2*E2)</f>
+        <v>-0.46015784683444028</v>
       </c>
       <c r="F3" s="20">
-        <f>IF(F2&gt;0,'Indicators-Adjusted'!F2*F2)</f>
-        <v>8.5773502691896262</v>
+        <f>IF(F2&gt;0,'Indicators-Cluster-2012'!F2*F2)</f>
+        <v>0.57735026918962584</v>
       </c>
       <c r="G3" s="20">
-        <f>IF(G2&gt;0,'Indicators-Adjusted'!G2*G2)</f>
-        <v>3.5</v>
+        <f>IF(G2&gt;0,'Indicators-Cluster-2012'!G2*G2)</f>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4316,28 +4679,28 @@
         <v>78</v>
       </c>
       <c r="B4" s="20">
-        <f>IF(B2&gt;0,'Indicators-Adjusted'!B3*B2)</f>
-        <v>7</v>
+        <f>IF(B2&gt;0,'Indicators-Cluster-2012'!B3*B2)</f>
+        <v>-1</v>
       </c>
       <c r="C4" s="20">
-        <f>IF(C2&gt;0,'Indicators-Adjusted'!C3*C2)</f>
-        <v>4</v>
+        <f>IF(C2&gt;0,'Indicators-Cluster-2012'!C3*C2)</f>
+        <v>0</v>
       </c>
       <c r="D4" s="20">
-        <f>IF(D2&gt;0,'Indicators-Adjusted'!D3*D2)</f>
-        <v>7.1993592309745642</v>
+        <f>IF(D2&gt;0,'Indicators-Cluster-2012'!D3*D2)</f>
+        <v>-0.80064076902543546</v>
       </c>
       <c r="E4" s="20">
-        <f>IF(E2&gt;0,'Indicators-Adjusted'!E3*E2)</f>
-        <v>3.9281003364321188</v>
+        <f>IF(E2&gt;0,'Indicators-Cluster-2012'!E3*E2)</f>
+        <v>-7.1899663567881175E-2</v>
       </c>
       <c r="F4" s="20">
-        <f>IF(F2&gt;0,'Indicators-Adjusted'!F3*F2)</f>
-        <v>6.8452994616207476</v>
+        <f>IF(F2&gt;0,'Indicators-Cluster-2012'!F3*F2)</f>
+        <v>-1.1547005383792521</v>
       </c>
       <c r="G4" s="20">
-        <f>IF(G2&gt;0,'Indicators-Adjusted'!G3*G2)</f>
-        <v>4</v>
+        <f>IF(G2&gt;0,'Indicators-Cluster-2012'!G3*G2)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4345,28 +4708,28 @@
         <v>48</v>
       </c>
       <c r="B5" s="20">
-        <f>IF(B2&gt;0,'Indicators-Adjusted'!B4*B2)</f>
-        <v>9</v>
+        <f>IF(B2&gt;0,'Indicators-Cluster-2012'!B4*B2)</f>
+        <v>1</v>
       </c>
       <c r="C5" s="20">
-        <f>IF(C2&gt;0,'Indicators-Adjusted'!C4*C2)</f>
-        <v>4.5</v>
+        <f>IF(C2&gt;0,'Indicators-Cluster-2012'!C4*C2)</f>
+        <v>0.5</v>
       </c>
       <c r="D5" s="20">
-        <f>IF(D2&gt;0,'Indicators-Adjusted'!D4*D2)</f>
-        <v>7.6797436923898257</v>
+        <f>IF(D2&gt;0,'Indicators-Cluster-2012'!D4*D2)</f>
+        <v>-0.32025630761017426</v>
       </c>
       <c r="E5" s="20">
-        <f>IF(E2&gt;0,'Indicators-Adjusted'!E4*E2)</f>
-        <v>4.5320575104023222</v>
+        <f>IF(E2&gt;0,'Indicators-Cluster-2012'!E4*E2)</f>
+        <v>0.53205751040232185</v>
       </c>
       <c r="F5" s="20">
-        <f>IF(F2&gt;0,'Indicators-Adjusted'!F4*F2)</f>
-        <v>8.5773502691896262</v>
+        <f>IF(F2&gt;0,'Indicators-Cluster-2012'!F4*F2)</f>
+        <v>0.57735026918962584</v>
       </c>
       <c r="G5" s="20">
-        <f>IF(G2&gt;0,'Indicators-Adjusted'!G4*G2)</f>
-        <v>4.5</v>
+        <f>IF(G2&gt;0,'Indicators-Cluster-2012'!G4*G2)</f>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -4392,7 +4755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja26"/>
   <dimension ref="A1:E4"/>
@@ -4425,20 +4788,20 @@
         <v>204</v>
       </c>
       <c r="B2" s="21">
-        <f>AVERAGE('Indicators-Weighted'!B$3:'Indicators-Weighted'!C$3)</f>
-        <v>5.75</v>
+        <f>AVERAGE('Indicators-Weighted-2012'!B$3:'Indicators-Weighted-2012'!C$3)</f>
+        <v>-0.25</v>
       </c>
       <c r="C2" s="21">
-        <f>AVERAGE('Indicators-Weighted'!D3)</f>
-        <v>9.1208970766356092</v>
+        <f>AVERAGE('Indicators-Weighted-2012'!D3)</f>
+        <v>1.1208970766356094</v>
       </c>
       <c r="D2" s="21">
-        <f>AVERAGE('Indicators-Weighted'!E3)</f>
-        <v>3.5398421531655595</v>
+        <f>AVERAGE('Indicators-Weighted-2012'!E3)</f>
+        <v>-0.46015784683444028</v>
       </c>
       <c r="E2" s="21">
-        <f>AVERAGE('Indicators-Weighted'!G3:'Indicators-Weighted'!F3)</f>
-        <v>6.0386751345948131</v>
+        <f>AVERAGE('Indicators-Weighted-2012'!G3:'Indicators-Weighted-2012'!F3)</f>
+        <v>3.8675134594812921E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4446,20 +4809,20 @@
         <v>78</v>
       </c>
       <c r="B3" s="21">
-        <f>AVERAGE('Indicators-Weighted'!B$4:'Indicators-Weighted'!C$4)</f>
-        <v>5.5</v>
+        <f>AVERAGE('Indicators-Weighted-2012'!B$4:'Indicators-Weighted-2012'!C$4)</f>
+        <v>-0.5</v>
       </c>
       <c r="C3" s="21">
-        <f>AVERAGE('Indicators-Weighted'!D4)</f>
-        <v>7.1993592309745642</v>
+        <f>AVERAGE('Indicators-Weighted-2012'!D4)</f>
+        <v>-0.80064076902543546</v>
       </c>
       <c r="D3" s="21">
-        <f>AVERAGE('Indicators-Weighted'!E4)</f>
-        <v>3.9281003364321188</v>
+        <f>AVERAGE('Indicators-Weighted-2012'!E4)</f>
+        <v>-7.1899663567881175E-2</v>
       </c>
       <c r="E3" s="21">
-        <f>AVERAGE('Indicators-Weighted'!G4:'Indicators-Weighted'!F4)</f>
-        <v>5.4226497308103738</v>
+        <f>AVERAGE('Indicators-Weighted-2012'!G4:'Indicators-Weighted-2012'!F4)</f>
+        <v>-0.57735026918962606</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4467,20 +4830,20 @@
         <v>48</v>
       </c>
       <c r="B4" s="21">
-        <f>AVERAGE('Indicators-Weighted'!B$5:'Indicators-Weighted'!C$5)</f>
-        <v>6.75</v>
+        <f>AVERAGE('Indicators-Weighted-2012'!B$5:'Indicators-Weighted-2012'!C$5)</f>
+        <v>0.75</v>
       </c>
       <c r="C4" s="21">
-        <f>AVERAGE('Indicators-Weighted'!D5)</f>
-        <v>7.6797436923898257</v>
+        <f>AVERAGE('Indicators-Weighted-2012'!D5)</f>
+        <v>-0.32025630761017426</v>
       </c>
       <c r="D4" s="21">
-        <f>AVERAGE('Indicators-Weighted'!E5)</f>
-        <v>4.5320575104023222</v>
+        <f>AVERAGE('Indicators-Weighted-2012'!E5)</f>
+        <v>0.53205751040232185</v>
       </c>
       <c r="E4" s="21">
-        <f>AVERAGE('Indicators-Weighted'!G5:'Indicators-Weighted'!F5)</f>
-        <v>6.5386751345948131</v>
+        <f>AVERAGE('Indicators-Weighted-2012'!G5:'Indicators-Weighted-2012'!F5)</f>
+        <v>0.53867513459481287</v>
       </c>
     </row>
   </sheetData>
@@ -4506,7 +4869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja27"/>
   <dimension ref="A1:C4"/>
@@ -4533,12 +4896,12 @@
         <v>204</v>
       </c>
       <c r="B2" s="21">
-        <f>AVERAGE('Clusters-Grouped'!B2:'Clusters-Grouped'!C2)</f>
-        <v>7.4354485383178046</v>
+        <f>SUM('Clusters-Grouped-2012'!B2:'Clusters-Grouped-2012'!C2)</f>
+        <v>0.87089707663560945</v>
       </c>
       <c r="C2" s="21">
-        <f>AVERAGE('Clusters-Grouped'!D2:'Clusters-Grouped'!E2)</f>
-        <v>4.7892586438801867</v>
+        <f>SUM('Clusters-Grouped-2012'!D2:'Clusters-Grouped-2012'!E2)</f>
+        <v>-0.42148271223962736</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -4546,12 +4909,12 @@
         <v>78</v>
       </c>
       <c r="B3" s="21">
-        <f>AVERAGE('Clusters-Grouped'!B3:'Clusters-Grouped'!C3)</f>
-        <v>6.3496796154872825</v>
+        <f>SUM('Clusters-Grouped-2012'!B3:'Clusters-Grouped-2012'!C3)</f>
+        <v>-1.3006407690254354</v>
       </c>
       <c r="C3" s="21">
-        <f>AVERAGE('Clusters-Grouped'!D3:'Clusters-Grouped'!E3)</f>
-        <v>4.6753750336212461</v>
+        <f>SUM('Clusters-Grouped-2012'!D3:'Clusters-Grouped-2012'!E3)</f>
+        <v>-0.6492499327575072</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4559,12 +4922,12 @@
         <v>48</v>
       </c>
       <c r="B4" s="21">
-        <f>AVERAGE('Clusters-Grouped'!B4:'Clusters-Grouped'!C4)</f>
-        <v>7.2148718461949128</v>
+        <f>SUM('Clusters-Grouped-2012'!B4:'Clusters-Grouped-2012'!C4)</f>
+        <v>0.42974369238982574</v>
       </c>
       <c r="C4" s="21">
-        <f>AVERAGE('Clusters-Grouped'!D4:'Clusters-Grouped'!E4)</f>
-        <v>5.5353663224985681</v>
+        <f>SUM('Clusters-Grouped-2012'!D4:'Clusters-Grouped-2012'!E4)</f>
+        <v>1.0707326449971348</v>
       </c>
     </row>
   </sheetData>
@@ -4590,7 +4953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja28"/>
   <dimension ref="A1:B4"/>
@@ -4614,8 +4977,8 @@
         <v>204</v>
       </c>
       <c r="B2">
-        <f>'Subindex-Grouped'!B2*Metadata!B267+'Subindex-Grouped'!C2*Metadata!B268</f>
-        <v>5.8477346016552341</v>
+        <f>'Subindex-Grouped-2012'!B2*Metadata!B267+'Subindex-Grouped-2012'!C2*Metadata!B268</f>
+        <v>9.5469203310467377E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -4623,8 +4986,8 @@
         <v>78</v>
       </c>
       <c r="B3">
-        <f>'Subindex-Grouped'!B3*Metadata!B267+'Subindex-Grouped'!C3*Metadata!B268</f>
-        <v>5.3450968663676601</v>
+        <f>'Subindex-Grouped-2012'!B3*Metadata!B267+'Subindex-Grouped-2012'!C3*Metadata!B268</f>
+        <v>-0.9098062672646785</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -4632,331 +4995,14 @@
         <v>48</v>
       </c>
       <c r="B4">
-        <f>'Subindex-Grouped'!B4*Metadata!B267+'Subindex-Grouped'!C4*Metadata!B268</f>
-        <v>6.2071685319771062</v>
+        <f>'Subindex-Grouped-2012'!B4*Metadata!B267+'Subindex-Grouped-2012'!C4*Metadata!B268</f>
+        <v>0.81433706395421113</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
-      <formula1>countries</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja29"/>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G1" t="s">
-        <v>265</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G2" t="s">
-        <v>270</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="B3" s="22">
-        <f>RANK('Clusters-Grouped'!B2,'Clusters-Grouped'!B$2:B$4)</f>
-        <v>2</v>
-      </c>
-      <c r="C3" s="22">
-        <f>RANK('Clusters-Grouped'!C2,'Clusters-Grouped'!C$2:C$4)</f>
-        <v>1</v>
-      </c>
-      <c r="D3" s="22">
-        <f>RANK('Subindex-Grouped'!B2,'Subindex-Grouped'!B$2:B$4)</f>
-        <v>1</v>
-      </c>
-      <c r="E3" s="22">
-        <f>RANK('Clusters-Grouped'!D2,'Clusters-Grouped'!D$2:D$4)</f>
-        <v>3</v>
-      </c>
-      <c r="F3" s="22">
-        <f>RANK('Clusters-Grouped'!E2,'Clusters-Grouped'!E$2:E$4)</f>
-        <v>2</v>
-      </c>
-      <c r="G3" s="22">
-        <f>RANK('Subindex-Grouped'!C2,'Subindex-Grouped'!C$2:C$4)</f>
-        <v>2</v>
-      </c>
-      <c r="H3" s="24">
-        <f>RANK(Composite!B2,Composite!B$2:B$4)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="22">
-        <f>RANK('Clusters-Grouped'!B3,'Clusters-Grouped'!B$2:B$4)</f>
-        <v>3</v>
-      </c>
-      <c r="C4" s="22">
-        <f>RANK('Clusters-Grouped'!C3,'Clusters-Grouped'!C$2:C$4)</f>
-        <v>3</v>
-      </c>
-      <c r="D4" s="22">
-        <f>RANK('Subindex-Grouped'!B3,'Subindex-Grouped'!B$2:B$4)</f>
-        <v>3</v>
-      </c>
-      <c r="E4" s="22">
-        <f>RANK('Clusters-Grouped'!D3,'Clusters-Grouped'!D$2:D$4)</f>
-        <v>2</v>
-      </c>
-      <c r="F4" s="22">
-        <f>RANK('Clusters-Grouped'!E3,'Clusters-Grouped'!E$2:E$4)</f>
-        <v>3</v>
-      </c>
-      <c r="G4" s="22">
-        <f>RANK('Subindex-Grouped'!C3,'Subindex-Grouped'!C$2:C$4)</f>
-        <v>3</v>
-      </c>
-      <c r="H4" s="24">
-        <f>RANK(Composite!B3,Composite!B$2:B$4)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="22">
-        <f>RANK('Clusters-Grouped'!B4,'Clusters-Grouped'!B$2:B$4)</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="22">
-        <f>RANK('Clusters-Grouped'!C4,'Clusters-Grouped'!C$2:C$4)</f>
-        <v>2</v>
-      </c>
-      <c r="D5" s="22">
-        <f>RANK('Subindex-Grouped'!B4,'Subindex-Grouped'!B$2:B$4)</f>
-        <v>2</v>
-      </c>
-      <c r="E5" s="22">
-        <f>RANK('Clusters-Grouped'!D4,'Clusters-Grouped'!D$2:D$4)</f>
-        <v>1</v>
-      </c>
-      <c r="F5" s="22">
-        <f>RANK('Clusters-Grouped'!E4,'Clusters-Grouped'!E$2:E$4)</f>
-        <v>1</v>
-      </c>
-      <c r="G5" s="22">
-        <f>RANK('Subindex-Grouped'!C4,'Subindex-Grouped'!C$2:C$4)</f>
-        <v>1</v>
-      </c>
-      <c r="H5" s="24">
-        <f>RANK(Composite!B4,Composite!B$2:B$4)</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja30"/>
-  <dimension ref="A2:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="B3" s="5">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="5">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="13">
-        <v>8</v>
-      </c>
-      <c r="C5" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <f>AVERAGE(B3:B5)</f>
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <f>AVERAGE(C3:C5)</f>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="D7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <f>STDEV(B3:B5)</f>
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <f>STDEV(C3:C5)</f>
-        <v>2.0816659994661335</v>
-      </c>
-      <c r="D8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A5">
-      <formula1>countries</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="B3" s="5">
-        <f>('Survey-Raw'!B$3-'Survey-Raw'!B$7)/'Survey-Raw'!B$8</f>
-        <v>-1</v>
-      </c>
-      <c r="C3" s="5">
-        <f>('Survey-Raw'!C$3-'Survey-Raw'!C$7)/'Survey-Raw'!C$8</f>
-        <v>1.1208970766356094</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="5">
-        <f>('Survey-Raw'!B$4-'Survey-Raw'!B$7)/'Survey-Raw'!B$8</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <f>('Survey-Raw'!C$4-'Survey-Raw'!C$7)/'Survey-Raw'!C$8</f>
-        <v>-0.80064076902543546</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="5">
-        <f>('Survey-Raw'!B$5-'Survey-Raw'!B$7)/'Survey-Raw'!B$8</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <f>('Survey-Raw'!C$5-'Survey-Raw'!C$7)/'Survey-Raw'!C$8</f>
-        <v>-0.32025630761017426</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A5">
       <formula1>countries</formula1>
     </dataValidation>
   </dataValidations>
@@ -5051,6 +5097,323 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja29"/>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="22">
+        <f>RANK('Clusters-Grouped-2012'!B2,'Clusters-Grouped-2012'!B$2:B$4)</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="22">
+        <f>RANK('Clusters-Grouped-2012'!C2,'Clusters-Grouped-2012'!C$2:C$4)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="22">
+        <f>RANK('Subindex-Grouped-2012'!B2,'Subindex-Grouped-2012'!B$2:B$4)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="22">
+        <f>RANK('Clusters-Grouped-2012'!D2,'Clusters-Grouped-2012'!D$2:D$4)</f>
+        <v>3</v>
+      </c>
+      <c r="F3" s="22">
+        <f>RANK('Clusters-Grouped-2012'!E2,'Clusters-Grouped-2012'!E$2:E$4)</f>
+        <v>2</v>
+      </c>
+      <c r="G3" s="22">
+        <f>RANK('Subindex-Grouped-2012'!C2,'Subindex-Grouped-2012'!C$2:C$4)</f>
+        <v>2</v>
+      </c>
+      <c r="H3" s="24">
+        <f>RANK('Composite-2012'!B2,'Composite-2012'!B$2:B$4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="22">
+        <f>RANK('Clusters-Grouped-2012'!B3,'Clusters-Grouped-2012'!B$2:B$4)</f>
+        <v>3</v>
+      </c>
+      <c r="C4" s="22">
+        <f>RANK('Clusters-Grouped-2012'!C3,'Clusters-Grouped-2012'!C$2:C$4)</f>
+        <v>3</v>
+      </c>
+      <c r="D4" s="22">
+        <f>RANK('Subindex-Grouped-2012'!B3,'Subindex-Grouped-2012'!B$2:B$4)</f>
+        <v>3</v>
+      </c>
+      <c r="E4" s="22">
+        <f>RANK('Clusters-Grouped-2012'!D3,'Clusters-Grouped-2012'!D$2:D$4)</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="22">
+        <f>RANK('Clusters-Grouped-2012'!E3,'Clusters-Grouped-2012'!E$2:E$4)</f>
+        <v>3</v>
+      </c>
+      <c r="G4" s="22">
+        <f>RANK('Subindex-Grouped-2012'!C3,'Subindex-Grouped-2012'!C$2:C$4)</f>
+        <v>3</v>
+      </c>
+      <c r="H4" s="24">
+        <f>RANK('Composite-2012'!B3,'Composite-2012'!B$2:B$4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="22">
+        <f>RANK('Clusters-Grouped-2012'!B4,'Clusters-Grouped-2012'!B$2:B$4)</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="22">
+        <f>RANK('Clusters-Grouped-2012'!C4,'Clusters-Grouped-2012'!C$2:C$4)</f>
+        <v>2</v>
+      </c>
+      <c r="D5" s="22">
+        <f>RANK('Subindex-Grouped-2012'!B4,'Subindex-Grouped-2012'!B$2:B$4)</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="22">
+        <f>RANK('Clusters-Grouped-2012'!D4,'Clusters-Grouped-2012'!D$2:D$4)</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="22">
+        <f>RANK('Clusters-Grouped-2012'!E4,'Clusters-Grouped-2012'!E$2:E$4)</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="22">
+        <f>RANK('Subindex-Grouped-2012'!C4,'Subindex-Grouped-2012'!C$2:C$4)</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="24">
+        <f>RANK('Composite-2012'!B4,'Composite-2012'!B$2:B$4)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja30"/>
+  <dimension ref="A2:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="5">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="5">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="13">
+        <v>8</v>
+      </c>
+      <c r="C5" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <f>AVERAGE(B3:B5)</f>
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <f>AVERAGE(C3:C5)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="D7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <f>STDEV(B3:B5)</f>
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f>STDEV(C3:C5)</f>
+        <v>2.0816659994661335</v>
+      </c>
+      <c r="D8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A5">
+      <formula1>countries</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="5">
+        <f>('Survey-Raw'!B$3-'Survey-Raw'!B$7)/'Survey-Raw'!B$8</f>
+        <v>-1</v>
+      </c>
+      <c r="C3" s="5">
+        <f>('Survey-Raw'!C$3-'Survey-Raw'!C$7)/'Survey-Raw'!C$8</f>
+        <v>1.1208970766356094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="5">
+        <f>('Survey-Raw'!B$4-'Survey-Raw'!B$7)/'Survey-Raw'!B$8</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <f>('Survey-Raw'!C$4-'Survey-Raw'!C$7)/'Survey-Raw'!C$8</f>
+        <v>-0.80064076902543546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="5">
+        <f>('Survey-Raw'!B$5-'Survey-Raw'!B$7)/'Survey-Raw'!B$8</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <f>('Survey-Raw'!C$5-'Survey-Raw'!C$7)/'Survey-Raw'!C$8</f>
+        <v>-0.32025630761017426</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A5">
+      <formula1>countries</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
